--- a/data/data_2015.xlsx
+++ b/data/data_2015.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/TakumaWatari/Dropbox/GitHub/steel-flows-sankeys/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/TakumaWatari/Dropbox/GitHub/steel-flows-sankeys/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3C43B8F-1513-A449-9A45-7FCC7560645C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93EFBD7B-1466-9341-8E98-5907AF35C609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-2460" yWindow="-18500" windowWidth="29340" windowHeight="17340" xr2:uid="{95929309-E14E-F341-94AB-0DA32D6E9E75}"/>
   </bookViews>
@@ -11732,15 +11732,15 @@
       <c r="E3" s="14"/>
       <c r="F3" s="14">
         <f ca="1">R6/parameters!$B$5-F5</f>
-        <v>539.94029850746256</v>
+        <v>2046.0895522388059</v>
       </c>
       <c r="G3" s="14">
         <f ca="1">R7/parameters!$B$6</f>
         <v>0</v>
       </c>
-      <c r="H3" s="38">
-        <f ca="1">R8/parameters!$B$7-H4-H5</f>
-        <v>18.518879557778746</v>
+      <c r="H3" s="14">
+        <f ca="1">R3-P3-Q3-F3-G3</f>
+        <v>19.680447761194046</v>
       </c>
       <c r="I3" s="14"/>
       <c r="J3" s="14"/>
@@ -11748,12 +11748,12 @@
       <c r="L3" s="13"/>
       <c r="M3" s="16">
         <f t="shared" ref="M3:M11" ca="1" si="0">SUM(B3:L3)</f>
-        <v>558.4591780652413</v>
+        <v>2065.77</v>
       </c>
       <c r="N3" s="16"/>
       <c r="O3" s="16">
         <f t="shared" ref="O3:O4" ca="1" si="1">R3-(M3+P3+Q3)</f>
-        <v>1507.3108219347587</v>
+        <v>0</v>
       </c>
       <c r="P3" s="11" cm="1">
         <f t="array" aca="1" ref="P3" ca="1">INDIRECT("'data'!$H$" &amp; $A$1)*parameters!$B$13</f>
@@ -11827,13 +11827,13 @@
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
       <c r="F5" s="14">
-        <f ca="1">R6/parameters!$B$5*81%</f>
-        <v>2301.8507462686571</v>
+        <f ca="1">R6/parameters!$B$5*28%</f>
+        <v>795.70149253731358</v>
       </c>
       <c r="G5" s="14"/>
-      <c r="H5" s="38">
-        <f ca="1">E15*parameters!$B$4-P5-Q5-F5</f>
-        <v>2087.6484767640609</v>
+      <c r="H5" s="14">
+        <f ca="1">R8/parameters!$B$7-(H3+H4)</f>
+        <v>2086.4869085606456</v>
       </c>
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
@@ -11841,7 +11841,7 @@
       <c r="L5" s="13"/>
       <c r="M5" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>4389.499223032718</v>
+        <v>2882.1884010979593</v>
       </c>
       <c r="N5" s="16"/>
       <c r="O5" s="16"/>
@@ -11855,11 +11855,11 @@
       </c>
       <c r="R5" s="16">
         <f ca="1">SUM(M5:Q5)</f>
-        <v>3440.8592230327181</v>
+        <v>1933.5484010979594</v>
       </c>
       <c r="S5" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>3440.8592230327181</v>
+        <v>1933.5484010979594</v>
       </c>
       <c r="T5" s="35"/>
     </row>
@@ -11994,21 +11994,21 @@
       <c r="I9" s="14"/>
       <c r="J9" s="14">
         <f ca="1">R10/J19</f>
-        <v>4527.1002693501287</v>
+        <v>3196</v>
       </c>
       <c r="K9" s="14">
         <f ca="1">R11/K19</f>
-        <v>4090.0397306498708</v>
+        <v>2887.4480796586058</v>
       </c>
       <c r="L9" s="13"/>
       <c r="M9" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>8617.14</v>
+        <v>6083.4480796586058</v>
       </c>
       <c r="N9" s="16"/>
       <c r="O9" s="16">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>2533.6919203413936</v>
       </c>
       <c r="P9" s="11" cm="1">
         <f t="array" aca="1" ref="P9" ca="1">INDIRECT("'data'!$R$" &amp; $A$1)*parameters!$B$15</f>
@@ -12175,7 +12175,7 @@
       </c>
       <c r="E13" s="9">
         <f ca="1">-(E18-R5)</f>
-        <v>-425.27473543100996</v>
+        <v>-238.97789227053408</v>
       </c>
       <c r="F13" s="9">
         <f ca="1">-(F18-R6)</f>
@@ -12198,7 +12198,7 @@
       <c r="L13" s="12"/>
       <c r="M13" s="9">
         <f t="shared" ref="M13:M17" ca="1" si="5">SUM(B13:L13)</f>
-        <v>-710.4807343955282</v>
+        <v>-524.18389123505233</v>
       </c>
       <c r="N13" s="17"/>
       <c r="O13" s="17"/>
@@ -12206,11 +12206,11 @@
       <c r="Q13" s="12"/>
       <c r="R13" s="9">
         <f t="shared" ref="R13:R18" ca="1" si="6">SUM(M13:Q13)</f>
-        <v>-710.4807343955282</v>
+        <v>-524.18389123505233</v>
       </c>
       <c r="S13" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>-710.4807343955282</v>
+        <v>-524.18389123505233</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -12227,11 +12227,11 @@
       <c r="I14" s="14"/>
       <c r="J14" s="14">
         <f ca="1">-(J18-R10)</f>
-        <v>-1395.0202693501287</v>
+        <v>-63.920000000000073</v>
       </c>
       <c r="K14" s="14">
         <f ca="1">-(K18-R11)</f>
-        <v>-1260.3406125844372</v>
+        <v>-57.748961593172226</v>
       </c>
       <c r="L14" s="13">
         <f ca="1">-(L18-R12)</f>
@@ -12239,22 +12239,22 @@
       </c>
       <c r="M14" s="14">
         <f t="shared" ca="1" si="5"/>
-        <v>-3866.1339584637276</v>
+        <v>-1332.442038122334</v>
       </c>
       <c r="N14" s="16">
         <f ca="1">-E16</f>
-        <v>0</v>
+        <v>-840.0842552461595</v>
       </c>
       <c r="O14" s="16"/>
       <c r="P14" s="11"/>
       <c r="Q14" s="13"/>
       <c r="R14" s="14">
         <f t="shared" ca="1" si="6"/>
-        <v>-3866.1339584637276</v>
+        <v>-2172.5262933684935</v>
       </c>
       <c r="S14" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>-3866.1339584637276</v>
+        <v>-2172.5262933684935</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -12266,7 +12266,7 @@
       <c r="D15" s="14"/>
       <c r="E15" s="14">
         <f ca="1">-(J14+K14)-L14</f>
-        <v>3866.1339584637276</v>
+        <v>1332.442038122334</v>
       </c>
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
@@ -12277,7 +12277,7 @@
       <c r="L15" s="13"/>
       <c r="M15" s="14">
         <f t="shared" ca="1" si="5"/>
-        <v>3866.1339584637276</v>
+        <v>1332.442038122334</v>
       </c>
       <c r="N15" s="16"/>
       <c r="O15" s="16"/>
@@ -12285,11 +12285,11 @@
       <c r="Q15" s="13"/>
       <c r="R15" s="14">
         <f t="shared" ca="1" si="6"/>
-        <v>3866.1339584637276</v>
+        <v>1332.442038122334</v>
       </c>
       <c r="S15" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>3866.1339584637276</v>
+        <v>1332.442038122334</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -12301,7 +12301,7 @@
       <c r="D16" s="14"/>
       <c r="E16" s="14">
         <f ca="1">E18-E15</f>
-        <v>0</v>
+        <v>840.0842552461595</v>
       </c>
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
@@ -12312,7 +12312,7 @@
       <c r="L16" s="13"/>
       <c r="M16" s="14">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>840.0842552461595</v>
       </c>
       <c r="N16" s="16"/>
       <c r="O16" s="16"/>
@@ -12320,11 +12320,11 @@
       <c r="Q16" s="13"/>
       <c r="R16" s="14">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>840.0842552461595</v>
       </c>
       <c r="S16" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>840.0842552461595</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -12380,7 +12380,7 @@
       </c>
       <c r="E18" s="9">
         <f ca="1">$R$5/parameters!$B$4</f>
-        <v>3866.133958463728</v>
+        <v>2172.5262933684935</v>
       </c>
       <c r="F18" s="9">
         <f t="shared" ref="F18:L18" ca="1" si="7">SUM(F$2:F$12)</f>
@@ -12400,11 +12400,11 @@
       </c>
       <c r="J18" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>4527.1002693501287</v>
+        <v>3196</v>
       </c>
       <c r="K18" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>4090.0397306498708</v>
+        <v>2887.4480796586058</v>
       </c>
       <c r="L18" s="9">
         <f t="shared" ca="1" si="7"/>
@@ -12412,7 +12412,7 @@
       </c>
       <c r="M18" s="17">
         <f ca="1">SUM(B18:L18)</f>
-        <v>37743.039075493682</v>
+        <v>33515.739490057051</v>
       </c>
       <c r="N18" s="17"/>
       <c r="O18" s="17"/>
@@ -12420,11 +12420,11 @@
       <c r="Q18" s="14"/>
       <c r="R18" s="11">
         <f t="shared" ca="1" si="6"/>
-        <v>37743.039075493682</v>
+        <v>33515.739490057051</v>
       </c>
       <c r="S18" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>37743.039075493682</v>
+        <v>33515.739490057051</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -12445,7 +12445,7 @@
       </c>
       <c r="E19" s="39">
         <f t="shared" ref="E19:H19" ca="1" si="8">IFERROR(1-(-E13)/E18, "")</f>
-        <v>0.89</v>
+        <v>0.89000000000000012</v>
       </c>
       <c r="F19" s="39">
         <f t="shared" ca="1" si="8"/>
@@ -12463,13 +12463,13 @@
         <f t="shared" ref="I19" ca="1" si="9">1-(-I13)/I18</f>
         <v>1</v>
       </c>
-      <c r="J19" s="39">
-        <f ca="1">(R10+R11)/(R9-P9-Q9)</f>
-        <v>0.69185125436808892</v>
-      </c>
-      <c r="K19" s="39">
-        <f ca="1">J19</f>
-        <v>0.69185125436808892</v>
+      <c r="J19" s="44">
+        <f>parameters!$B$9</f>
+        <v>0.98</v>
+      </c>
+      <c r="K19" s="44">
+        <f>J19</f>
+        <v>0.98</v>
       </c>
       <c r="L19" s="40">
         <f ca="1">1-(-L14)/L18</f>
@@ -12528,7 +12528,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAC5760C-2A18-D54C-B5DA-3A572D21AFFA}">
   <dimension ref="A1:U24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:H5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -23504,7 +23506,9 @@
   </sheetPr>
   <dimension ref="A1:T29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J19" sqref="J19:K19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
